--- a/synth_comp/results.xlsx
+++ b/synth_comp/results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b541f00bc258be9/Documents/GitHub/aftab-cfi-pla/synthesis and comparison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6b541f00bc258be9/Documents/GitHub/aftab-cfi-pla/synth_comp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5ED9B53-7979-4959-99E0-D9864BD074BA}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{C4E7A7FE-4D0B-46AE-B543-38295E90A8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C915201D-5D38-41F3-84C0-1F54D7F11E04}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{D9EEC037-ED42-4D4D-A3BC-A59319E62513}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="harware" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1FA199-86F6-4339-A821-9FA796BA715E}">
   <dimension ref="A3:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
